--- a/02_MasterWifoMannheim/99_Backup/Course130.xlsx
+++ b/02_MasterWifoMannheim/99_Backup/Course130.xlsx
@@ -1,136 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailunimannheimde-my.sharepoint.com/personal/pstapf_mail_uni-mannheim_de/Documents/Uni/Master/Masterarbeit/Course_Suggestion/02_MasterWifoMannheim/03_Courses/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_2B59D2BFD32051265F592811598DE8705041FAD3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E307D545-EAA1-4729-B746-BBD0F54AF9FB}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
-  <si>
-    <t>Modul</t>
-  </si>
-  <si>
-    <t>MAN 691 Selected Topics in Organizational Behavior</t>
-  </si>
-  <si>
-    <t>Contents</t>
-  </si>
-  <si>
-    <t>Organizational behavior is defined as the systematic study and application of knowledge about how individuals and groups act within the organizations where they work. The lecture presents essential theories and concepts explaining how individual and group behavior shape the internal dynamics of organizations. The course deals with factors that facilitate abilities, and emotions, group dynamics, leadership, power, organizational culture and organizational design.</t>
-  </si>
-  <si>
-    <t>Learning outcomes</t>
-  </si>
-  <si>
-    <t>This course helps students develop a conceptual understanding of organizational behavior to analyze, understand, and manage human behavior in organizations to improve organizational efficiency and effectiveness.</t>
-  </si>
-  <si>
-    <t>Prerequisites</t>
-  </si>
-  <si>
-    <t>Obligatory registration</t>
-  </si>
-  <si>
-    <t>Further Information on registration: -</t>
-  </si>
-  <si>
-    <t>Courses Hours per weekSelf-study Lecture 2 6</t>
-  </si>
-  <si>
-    <t>ECTS</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>Form of assessment</t>
-  </si>
-  <si>
-    <t>Written exam (60 Min.)</t>
-  </si>
-  <si>
-    <t>Preliminary course work -</t>
-  </si>
-  <si>
-    <t>Lecturer/Person in charge</t>
-  </si>
-  <si>
-    <t>Prof. Dr. Karin Hoisl</t>
-  </si>
-  <si>
-    <t>Duration of module</t>
-  </si>
-  <si>
-    <t>1 semester</t>
-  </si>
-  <si>
-    <t>Offering</t>
-  </si>
-  <si>
-    <t>Spring Semester</t>
-  </si>
-  <si>
-    <t>Language</t>
-  </si>
-  <si>
-    <t>English</t>
-  </si>
-  <si>
-    <t>Program-specific educational goals</t>
-  </si>
-  <si>
-    <t>Grade</t>
-  </si>
-  <si>
-    <t>graded</t>
-  </si>
-  <si>
-    <t>Range of application</t>
-  </si>
-  <si>
-    <t>M.Sc. MMM, M.Sc. MMBR, M.Sc. Bus. Inf., M.Sc. Bus. Edu., LL.M., M.Sc. Econ.</t>
-  </si>
-  <si>
-    <t>Management (MAN)</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -145,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -469,140 +420,205 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
+    <row r="1">
+      <c r="A1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B1" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" t="s">
-        <v>27</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Modul</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>MAN 691 Selected Topics in Organizational Behavior</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Contents</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Organizational behavior is defined as the systematic study and application of knowledge about how individuals and groups act within the organizations where they work. The lecture presents essential theories and concepts explaining how individual and group behavior shape the internal dynamics of organizations. The course deals with factors that facilitate abilities, and emotions, group dynamics, leadership, power, organizational culture and organizational design.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Learning outcomes</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>This course helps students develop a conceptual understanding of organizational behavior to analyze, understand, and manage human behavior in organizations to improve organizational efficiency and effectiveness.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Prerequisites</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Management (MAN)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Obligatory registration</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Further Information on registration: -</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Courses Hours per weekSelf-study Lecture 2 6</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ECTS</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Form of assessment</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Written exam (60 Min.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Preliminary course work -</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Lecturer/Person in charge</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Prof. Dr. Karin Hoisl</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Duration of module</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1 semester</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Offering</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>SSS</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Language</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Program-specific educational goals</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Grade</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>graded</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Range of application</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>M.Sc. MMM, M.Sc. MMBR, M.Sc. Bus. Inf., M.Sc. Bus. Edu., LL.M., M.Sc. Econ.</t>
+        </is>
       </c>
     </row>
   </sheetData>
